--- a/others/Test Cases 0624.xlsx
+++ b/others/Test Cases 0624.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Agency Registration" sheetId="1" r:id="rId2"/>
+    <sheet name="Agency Events" sheetId="4" r:id="rId3"/>
+    <sheet name="ref" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>The email is already associated with an existing account in the system.</t>
   </si>
@@ -153,6 +154,18 @@
   </si>
   <si>
     <t>Database Error: The role was not found.</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>Event date should be unique with approved and for approval status</t>
+  </si>
+  <si>
+    <t>Agency events should have a gap of 90days before and after</t>
+  </si>
+  <si>
+    <t>Creating/Updating an Event</t>
   </si>
 </sst>
 </file>
@@ -227,7 +240,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -245,16 +258,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -644,7 +647,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet3!$A$2:$A$3</xm:f>
+            <xm:f>ref!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F3</xm:sqref>
         </x14:dataValidation>
@@ -659,7 +662,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,10 +785,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
